--- a/CAMPAÑASB.xlsx
+++ b/CAMPAÑASB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrésFelipeJaramill\.vscode\poliedro1\ejemplojuan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrésFelipeJaramill\.vscode\poliedro1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A49EFE32-E6E9-4C8E-8C02-FFE8240108E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF57C623-7A82-4041-8BD1-345945674710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
   </bookViews>

--- a/CAMPAÑASB.xlsx
+++ b/CAMPAÑASB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrésFelipeJaramill\.vscode\poliedro1\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/onecontact_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF57C623-7A82-4041-8BD1-345945674710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DF57C623-7A82-4041-8BD1-345945674710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B074CE7D-070E-498E-83DA-44C1EDE930D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
   </bookViews>
@@ -122,7 +122,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf/>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf/>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -432,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7AB91-B5F9-443D-B4A7-DC4A2659C022}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -767,9 +780,71 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>27744</v>
+      </c>
       <c r="C24" s="1"/>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>27745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>28627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>28628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>27965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>27966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>27751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>27788</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>27787</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A24:A45">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CAMPAÑASB.xlsx
+++ b/CAMPAÑASB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/onecontact_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrésFelipeJaramill\.vscode\poliedro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DF57C623-7A82-4041-8BD1-345945674710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B074CE7D-070E-498E-83DA-44C1EDE930D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC78CB9D-DEC0-4B57-A3FB-B1CF47E3CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="11">
   <si>
     <t>PLAN</t>
   </si>
@@ -53,32 +53,29 @@
     <t>TIGO</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[1 3]/fieldset/div[1]/span/span/input</t>
-  </si>
-  <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[1 4]/fieldset/div[1]/span/span/input</t>
-  </si>
-  <si>
     <t>ETB</t>
   </si>
   <si>
     <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2] /div[8]/fieldset/div[1]/span/span/input</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[1 4]/fieldset/div[1]/span/span/inpAT</t>
+    <t>MOVISTAR</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2] /div[8]/fieldset/div[1]/span/span/inpEt</t>
+    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[13]/fieldset/div[1]/span/span/input</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[1 3]/fieldset/div[1]/span/span/12345input</t>
+    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[14]/fieldset/div[1]/span/span/input</t>
+  </si>
+  <si>
+    <t>CLARO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,20 +119,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf/>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf/>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -445,19 +429,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7AB91-B5F9-443D-B4A7-DC4A2659C022}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="115.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>27744</v>
       </c>
@@ -479,13 +463,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>27745</v>
       </c>
@@ -493,13 +477,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>28627</v>
       </c>
@@ -507,13 +491,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>28628</v>
       </c>
@@ -521,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>27746</v>
       </c>
@@ -535,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>27747</v>
       </c>
@@ -549,13 +533,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>27965</v>
       </c>
@@ -563,13 +547,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>27966</v>
       </c>
@@ -577,13 +561,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>27750</v>
       </c>
@@ -591,13 +575,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>27751</v>
       </c>
@@ -605,246 +589,520 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>27788</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>27787</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>27744</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>27745</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>28627</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>28628</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>27965</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>27966</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>27746</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>27747</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>27750</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>27751</v>
       </c>
       <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>27788</v>
+      </c>
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>27787</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>27744</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>27745</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>28627</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>28628</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27746</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>27747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>27965</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>27966</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
+        <v>27746</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>27747</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>27750</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
         <v>27751</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
         <v>27788</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
         <v>27787</v>
       </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>27744</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>27745</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>28627</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>28628</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>27965</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>27966</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>27746</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>27747</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>27750</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>27751</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:A45">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CAMPAÑASB.xlsx
+++ b/CAMPAÑASB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrésFelipeJaramill\.vscode\poliedro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC78CB9D-DEC0-4B57-A3FB-B1CF47E3CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="9">
   <si>
     <t>PLAN</t>
   </si>
@@ -56,19 +56,13 @@
     <t>ETB</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2] /div[8]/fieldset/div[1]/span/span/input</t>
-  </si>
-  <si>
     <t>MOVISTAR</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[13]/fieldset/div[1]/span/span/input</t>
+    <t>CLARO</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[14]/fieldset/div[1]/span/span/input</t>
-  </si>
-  <si>
-    <t>CLARO</t>
+    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[10]/fieldset/div[1]/span/span/input</t>
   </si>
 </sst>
 </file>
@@ -431,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7AB91-B5F9-443D-B4A7-DC4A2659C022}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -466,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -480,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -494,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -508,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -522,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -536,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -550,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -564,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -578,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -592,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -606,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -620,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -630,11 +624,11 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
+      <c r="C14" t="s">
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -645,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -659,10 +653,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -673,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -687,10 +681,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -701,10 +695,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -715,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -729,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -743,10 +737,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -757,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -768,13 +762,13 @@
         <v>27788</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -782,13 +776,13 @@
         <v>27787</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -796,13 +790,13 @@
         <v>27744</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -810,13 +804,13 @@
         <v>27745</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -824,13 +818,13 @@
         <v>28627</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -838,13 +832,13 @@
         <v>28628</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -852,13 +846,13 @@
         <v>27965</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -866,13 +860,13 @@
         <v>27966</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -880,13 +874,13 @@
         <v>27746</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -894,13 +888,13 @@
         <v>27747</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -908,13 +902,13 @@
         <v>27750</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -922,13 +916,13 @@
         <v>27751</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -936,13 +930,13 @@
         <v>27788</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -950,13 +944,13 @@
         <v>27787</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -964,13 +958,13 @@
         <v>27744</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -978,13 +972,13 @@
         <v>27745</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -992,13 +986,13 @@
         <v>28627</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1006,13 +1000,13 @@
         <v>28628</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1020,13 +1014,13 @@
         <v>27965</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1034,13 +1028,13 @@
         <v>27966</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1048,13 +1042,13 @@
         <v>27746</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1062,13 +1056,13 @@
         <v>27747</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1076,13 +1070,13 @@
         <v>27750</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1090,13 +1084,13 @@
         <v>27751</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="4:4">

--- a/CAMPAÑASB.xlsx
+++ b/CAMPAÑASB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrésFelipeJaramill\.vscode\poliedro1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/onecontact_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C3F937C-6888-4A1D-930A-2A3F57CE25F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>CLARO</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[10]/fieldset/div[1]/span/span/input</t>
+    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[3]/fieldset/div[1]/span/span/input</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>

--- a/CAMPAÑASB.xlsx
+++ b/CAMPAÑASB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/onecontact_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C3F937C-6888-4A1D-930A-2A3F57CE25F0}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1401CE7C-C9C8-4B95-8FD6-A7B0EBA3B813}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>CLARO</t>
   </si>
   <si>
-    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[3]/fieldset/div[1]/span/span/input</t>
+    <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[2]/fieldset/div[1]/span/span/input</t>
   </si>
 </sst>
 </file>
@@ -124,6 +124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7AB91-B5F9-443D-B4A7-DC4A2659C022}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>

--- a/CAMPAÑASB.xlsx
+++ b/CAMPAÑASB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/onecontact_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1401CE7C-C9C8-4B95-8FD6-A7B0EBA3B813}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6ABD33-9449-4A0E-B57B-11462A2046FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="12">
   <si>
     <t>PLAN</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>/html/body/div/div[2]/section/div/div[2]/div[2]/main/form/div/div[5]/div/div/div/div[2]/div[2]/fieldset/div[1]/span/span/input</t>
+  </si>
+  <si>
+    <t>WOM</t>
+  </si>
+  <si>
+    <t>324450U2TGRENGIGRNG2J2DFF</t>
+  </si>
+  <si>
+    <t>32U0U43HRFDMGJOJQWE0QJW0RQ0RJQJRR</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7AB91-B5F9-443D-B4A7-DC4A2659C022}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -805,16 +814,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>27745</v>
+        <v>28689</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -887,7 +896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>27747</v>
       </c>
@@ -901,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>27750</v>
       </c>
@@ -915,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>27751</v>
       </c>
@@ -928,8 +937,9 @@
       <c r="D35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>27788</v>
       </c>
@@ -943,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>27787</v>
       </c>
@@ -957,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>27744</v>
       </c>
@@ -971,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>27745</v>
       </c>
@@ -985,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>28627</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>28628</v>
       </c>
@@ -1013,7 +1023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>27965</v>
       </c>
@@ -1027,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>27966</v>
       </c>
@@ -1041,7 +1051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>27746</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>27747</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>27750</v>
       </c>
@@ -1083,7 +1093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>27751</v>
       </c>

--- a/CAMPAÑASB.xlsx
+++ b/CAMPAÑASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/onecontact_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6ABD33-9449-4A0E-B57B-11462A2046FB}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{5227DECB-57B4-430C-87D4-CE9ECB048F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B964C8-101A-4B2B-B8AB-46479170EEC0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
+    <workbookView minimized="1" xWindow="580" yWindow="3260" windowWidth="18620" windowHeight="6940" xr2:uid="{1971F584-5E83-4B7D-9B11-18B7D808A57A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="10">
   <si>
     <t>PLAN</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>WOM</t>
-  </si>
-  <si>
-    <t>324450U2TGRENGIGRNG2J2DFF</t>
-  </si>
-  <si>
-    <t>32U0U43HRFDMGJOJQWE0QJW0RQ0RJQJRR</t>
   </si>
 </sst>
 </file>
@@ -436,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7AB91-B5F9-443D-B4A7-DC4A2659C022}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -672,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>28628</v>
       </c>
@@ -686,7 +680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>27965</v>
       </c>
@@ -700,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>27966</v>
       </c>
@@ -714,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>27746</v>
       </c>
@@ -728,7 +722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>27747</v>
       </c>
@@ -742,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>27750</v>
       </c>
@@ -756,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>27751</v>
       </c>
@@ -770,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>27788</v>
       </c>
@@ -784,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>27787</v>
       </c>
@@ -797,8 +791,9 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>27744</v>
       </c>
@@ -812,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>28689</v>
       </c>
@@ -820,13 +815,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>28627</v>
       </c>
@@ -840,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28628</v>
       </c>
@@ -854,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>27965</v>
       </c>
@@ -868,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>27966</v>
       </c>
@@ -882,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>27746</v>
       </c>
